--- a/docs/StructureDefinition-VAFinishedOutpatientMedicationRequest.xlsx
+++ b/docs/StructureDefinition-VAFinishedOutpatientMedicationRequest.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$144</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3902" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5340" uniqueCount="885">
   <si>
     <t>Path</t>
   </si>
@@ -346,7 +346,286 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>richAnnotation/comment/text</t>
+    <t>medicationrequest-pharmacyOrderStatus</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-pharmacyOrderStatus}
+</t>
+  </si>
+  <si>
+    <t>This field represents the current status of the prescription.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @STATUS 52-100b</t>
+  </si>
+  <si>
+    <t>medicationrequest-forShipboardHazard</t>
+  </si>
+  <si>
+    <t>PROJ 112/SHAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forShipboardHazard}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>During Outpatient Pharmacy order entry, a pharmacist may be asked if the medication being prescribed is for a condition related to PROJ 112/SHAD while in the military. This field will store the pharmacist's response to this question. The value in this field will be used to evaluate whether or not a copay should be applied to the prescription. This value will also be used as a default should this question be raised again during the life of the prescription.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @PROJ 112/SHAD 52-122.01</t>
+  </si>
+  <si>
+    <t>medicationrequest-forCombatService</t>
+  </si>
+  <si>
+    <t>COMBAT VETERAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forCombatService}
+</t>
+  </si>
+  <si>
+    <t>During Outpatient Pharmacy order entry, a pharmacist may be asked if the  medication being prescribed is for a condition related to Combat Services  while in the military. This field will store the pharmacist's response to this question. The value in this field will be used to evaluate whether or not a copay should be applied to the prescription. This value will also be used as a default should this question be raised again during the life of the prescription.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @COMBAT VETERAN 52-122</t>
+  </si>
+  <si>
+    <t>medicationrequest-forHeadOrNeckCancer</t>
+  </si>
+  <si>
+    <t>HEAD AND/OR NECK CANCER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forHeadOrNeckCancer}
+</t>
+  </si>
+  <si>
+    <t>During Outpatient Pharmacy order entry, if a veteran has been identified as having been treated for Head and/or Neck Cancer due to nose or throat radium treatments while in the military, the pharmacist may be asked to identify whether or not the medication prescribed is being used to treat this condition. This field will store the pharmacist's response to this question. The value in this field will be used to evaluate whether or not a copay should be applied to the prescription. This value will also be used as a default should this question be raised again during the life of the prescription when a prescription fill is being released, or as the default for the question upon renewal of the prescription through CPRS or Outpatient Pharmacy.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @HEAD AND/OR NECK CANCER 52-121</t>
+  </si>
+  <si>
+    <t>medicationrequest-forSouthwestAsiaConditions</t>
+  </si>
+  <si>
+    <t>SOUTHWEST ASIA CONDITIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forSouthwestAsiaConditions}
+</t>
+  </si>
+  <si>
+    <t>During Outpatient Pharmacy order entry, if a veteran has been identified as having been exposed to Southwest Asia Conditions (formerly referred to as Environmental Contaminants), the pharmacist may be asked to identify whether or not the medication prescribed is being used to treat a condition due to this exposure. This field will store the pharmacist's response to this question. The value in this field will be used to evaluate whether or not a copay should be applied to the prescription. This value will also be used as a default should this question be raised again during the life of the prescription when a prescription fill is being released, or as the default for the question upon renewal of the prescription through CPRS or Outpatient Pharmacy.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @SOUTHWEST ASIA CONDITIONS 52-120</t>
+  </si>
+  <si>
+    <t>medicationrequest-forExposureToIonizingRadiation</t>
+  </si>
+  <si>
+    <t>IONIZING RADIATION EXPOSURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forExposureToIonizingRadiation}
+</t>
+  </si>
+  <si>
+    <t>During Outpatient Pharmacy order entry, if a veteran has been identified as having been exposed to ionizing radiation during military service, the pharmacist may be asked to identify whether or not the medication prescribed is being used to treat a condition due to this exposure. This field will store the pharmacist's response to this question. The value in this field will be used to evaluate whether or not a copay should be applied to the prescription. This value will also be used as a default should this question be raised again during the life of the prescription when a prescription fill is being released, or as the default for the question upon renewal of the prescription through CPRS or Outpatient Pharmacy.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @IONIZING RADIATION EXPOSURE 52-119</t>
+  </si>
+  <si>
+    <t>medicationrequest-forAgentOrangeExposure</t>
+  </si>
+  <si>
+    <t>AGENT ORANGE EXPOSURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forAgentOrangeExposure}
+</t>
+  </si>
+  <si>
+    <t>During Outpatient Pharmacy order entry, if a veteran has been identified as having been exposed to Agent Orange during Vietnam service, the pharmacist may be asked to identify whether or not the medication prescribed is being used to treat a condition due to this exposure. This field will store the pharmacist's response to this question. The value in this field will be used to evaluate whether or not a copay should be applied to the prescription. This value will also be used as a default should this question be raised again during the life of the prescription when a prescription fill is being released, or as the default for the question upon renewal of the prescription through CPRS or Outpatient Pharmacy.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @AGENT ORANGE EXPOSURE 52-118</t>
+  </si>
+  <si>
+    <t>medicationrequest-forMilitarySexualTrauma</t>
+  </si>
+  <si>
+    <t>MILITARY SEXUAL TRAUMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forMilitarySexualTrauma}
+</t>
+  </si>
+  <si>
+    <t>During Outpatient Pharmacy order entry, if a veteran has been identified as having been treated for Military Sexual Trauma, the pharmacist may be asked to identify whether or not the medication prescribed is being used to treat a condition related to Military Sexual Trauma. This field will store the pharmacist's response to this question. The value in this field will be used to evaluate whether or not a copay should be applied to the prescription. This value will also be used as a default should this question be raised again during the life of the prescription when a prescription fill is being released, or as the default for the question upon renewal of the prescription through CPRS or Outpatient Pharmacy.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @MILITARY SEXUAL TRAUMA 52-117</t>
+  </si>
+  <si>
+    <t>medicationrequest-associatedTitrationPrescription</t>
+  </si>
+  <si>
+    <t>TITRATION RX FLAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-associatedTitrationPrescription}
+</t>
+  </si>
+  <si>
+    <t>This flag indicates whether the prescription is being dispensed as a  Titration Dose. It is intended to identify a Titration Dose Rx without  a corresponding Maintenance Dose Rx.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @TITRATION RX FLAG 52-45.3</t>
+  </si>
+  <si>
+    <t>medicationrequest-associatedMaintenancePrescription</t>
+  </si>
+  <si>
+    <t>MAINTENANCE DOSE RX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-associatedMaintenancePrescription}
+</t>
+  </si>
+  <si>
+    <t>This is the Maintenance Dose Rx that was created from the corresponding  Titration Dose Rx.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @MAINTENANCE DOSE RX 52-45.2</t>
+  </si>
+  <si>
+    <t>extension-MedicationRequest-statusReason</t>
+  </si>
+  <si>
+    <t>DISCONTINUE TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/extension-MedicationRequest.statusReason}
+</t>
+  </si>
+  <si>
+    <t>Discontinue Type</t>
+  </si>
+  <si>
+    <t>This field is used to distinguish what type of external discontinue action occurred.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @DISCONTINUE TYPE 52-100.1</t>
+  </si>
+  <si>
+    <t>pharmacy-dosageOrdered</t>
+  </si>
+  <si>
+    <t>DOSAGE ORDERED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/pharmacy-dosageOrdered}
+</t>
+  </si>
+  <si>
+    <t>Medication Instructions</t>
+  </si>
+  <si>
+    <t>This is a single dose of medication the patient will receive for this Rx order.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @DOSAGE ORDERED 52.0113-.01</t>
+  </si>
+  <si>
+    <t>medicationrequest-forServiceConnectedCondition</t>
+  </si>
+  <si>
+    <t>SERVICE CONNECTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forServiceConnectedCondition}
+</t>
+  </si>
+  <si>
+    <t>During Outpatient Pharmacy order entry, a pharmacist may be asked if the medication being prescribed is for a service connected condition. This field will store the pharmacist's response to this question. The value in this field will be used to evaluate whether or not a copay should be applied to the prescription. This value will also be used as a default should this question be raised again during the life of the prescription when a prescription fill is being released, or as the default for the question upon renewal of the prescription through CPRS or Outpatient Pharmacy.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @SERVICE CONNECTED 52-116</t>
+  </si>
+  <si>
+    <t>medicationrequest-lastDispensedDate</t>
+  </si>
+  <si>
+    <t>LAST DISPENSED DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-lastDispensedDate}
+</t>
+  </si>
+  <si>
+    <t>Last Dispensed date</t>
+  </si>
+  <si>
+    <t>This field contains the last fill date.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @LAST DISPENSED DATE 52-101</t>
+  </si>
+  <si>
+    <t>medicationrequest-cosigningProvider</t>
+  </si>
+  <si>
+    <t>COSIGNING PHYSICIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-cosigningProvider}
+</t>
+  </si>
+  <si>
+    <t>This field identifies the cosigning physician for prescriptions written by a provider for whom a counter signature is required, for example a nurse practitioner.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @COSIGNING PHYSICIAN 52-109</t>
+  </si>
+  <si>
+    <t>medicationrequest-orderIssueDate</t>
+  </si>
+  <si>
+    <t>ISSUE DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-orderIssueDate}
+</t>
+  </si>
+  <si>
+    <t>Rx Issue Date</t>
+  </si>
+  <si>
+    <t>Date when doctor wrote prescription.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @ISSUE DATE 52-1</t>
+  </si>
+  <si>
+    <t>richAnnotation-comment-text</t>
   </si>
   <si>
     <t>PROVIDER COMMENTS</t>
@@ -359,286 +638,7 @@
     <t>This field stores any provider comments that are passed to Pharmacy from CPRS.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>PRESCRIPTION @PROVIDER COMMENTS 52-39</t>
-  </si>
-  <si>
-    <t>medicationrequest-orderIssueDate</t>
-  </si>
-  <si>
-    <t>ISSUE DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-orderIssueDate}
-</t>
-  </si>
-  <si>
-    <t>Rx Issue Date</t>
-  </si>
-  <si>
-    <t>Date when doctor wrote prescription.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @ISSUE DATE 52-1</t>
-  </si>
-  <si>
-    <t>medicationrequest-cosigningProvider</t>
-  </si>
-  <si>
-    <t>COSIGNING PHYSICIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-cosigningProvider}
-</t>
-  </si>
-  <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>This field identifies the cosigning physician for prescriptions written by a provider for whom a counter signature is required, for example a nurse practitioner.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @COSIGNING PHYSICIAN 52-109</t>
-  </si>
-  <si>
-    <t>medicationrequest-lastDispensedDate</t>
-  </si>
-  <si>
-    <t>LAST DISPENSED DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-lastDispensedDate}
-</t>
-  </si>
-  <si>
-    <t>Last Dispensed date</t>
-  </si>
-  <si>
-    <t>This field contains the last fill date.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @LAST DISPENSED DATE 52-101</t>
-  </si>
-  <si>
-    <t>medicationrequest-forServiceConnectedCondition</t>
-  </si>
-  <si>
-    <t>SERVICE CONNECTED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forServiceConnectedCondition}
-</t>
-  </si>
-  <si>
-    <t>During Outpatient Pharmacy order entry, a pharmacist may be asked if the medication being prescribed is for a service connected condition. This field will store the pharmacist's response to this question. The value in this field will be used to evaluate whether or not a copay should be applied to the prescription. This value will also be used as a default should this question be raised again during the life of the prescription when a prescription fill is being released, or as the default for the question upon renewal of the prescription through CPRS or Outpatient Pharmacy.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @SERVICE CONNECTED 52-116</t>
-  </si>
-  <si>
-    <t>pharmacy-dosageOrdered</t>
-  </si>
-  <si>
-    <t>DOSAGE ORDERED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/pharmacy-dosageOrdered}
-</t>
-  </si>
-  <si>
-    <t>Medication Instructions</t>
-  </si>
-  <si>
-    <t>This is a single dose of medication the patient will receive for this Rx order.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @DOSAGE ORDERED 52.0113-.01</t>
-  </si>
-  <si>
-    <t>extension-MedicationRequest/statusReason</t>
-  </si>
-  <si>
-    <t>DISCONTINUE TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/extension-MedicationRequest.statusReason}
-</t>
-  </si>
-  <si>
-    <t>Discontinue Type</t>
-  </si>
-  <si>
-    <t>This field is used to distinguish what type of external discontinue action occurred.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @DISCONTINUE TYPE 52-100.1</t>
-  </si>
-  <si>
-    <t>medicationrequest-associatedMaintenancePrescription</t>
-  </si>
-  <si>
-    <t>MAINTENANCE DOSE RX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-associatedMaintenancePrescription}
-</t>
-  </si>
-  <si>
-    <t>This is the Maintenance Dose Rx that was created from the corresponding  Titration Dose Rx.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @MAINTENANCE DOSE RX 52-45.2</t>
-  </si>
-  <si>
-    <t>medicationrequest-associatedTitrationPrescription</t>
-  </si>
-  <si>
-    <t>TITRATION RX FLAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-associatedTitrationPrescription}
-</t>
-  </si>
-  <si>
-    <t>This flag indicates whether the prescription is being dispensed as a  Titration Dose. It is intended to identify a Titration Dose Rx without  a corresponding Maintenance Dose Rx.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @TITRATION RX FLAG 52-45.3</t>
-  </si>
-  <si>
-    <t>medicationrequest-forMilitarySexualTrauma</t>
-  </si>
-  <si>
-    <t>MILITARY SEXUAL TRAUMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forMilitarySexualTrauma}
-</t>
-  </si>
-  <si>
-    <t>During Outpatient Pharmacy order entry, if a veteran has been identified as having been treated for Military Sexual Trauma, the pharmacist may be asked to identify whether or not the medication prescribed is being used to treat a condition related to Military Sexual Trauma. This field will store the pharmacist's response to this question. The value in this field will be used to evaluate whether or not a copay should be applied to the prescription. This value will also be used as a default should this question be raised again during the life of the prescription when a prescription fill is being released, or as the default for the question upon renewal of the prescription through CPRS or Outpatient Pharmacy.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @MILITARY SEXUAL TRAUMA 52-117</t>
-  </si>
-  <si>
-    <t>medicationrequest-forAgentOrangeExposure</t>
-  </si>
-  <si>
-    <t>AGENT ORANGE EXPOSURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forAgentOrangeExposure}
-</t>
-  </si>
-  <si>
-    <t>During Outpatient Pharmacy order entry, if a veteran has been identified as having been exposed to Agent Orange during Vietnam service, the pharmacist may be asked to identify whether or not the medication prescribed is being used to treat a condition due to this exposure. This field will store the pharmacist's response to this question. The value in this field will be used to evaluate whether or not a copay should be applied to the prescription. This value will also be used as a default should this question be raised again during the life of the prescription when a prescription fill is being released, or as the default for the question upon renewal of the prescription through CPRS or Outpatient Pharmacy.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @AGENT ORANGE EXPOSURE 52-118</t>
-  </si>
-  <si>
-    <t>medicationrequest-forExposureToIonizingRadiation</t>
-  </si>
-  <si>
-    <t>IONIZING RADIATION EXPOSURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forExposureToIonizingRadiation}
-</t>
-  </si>
-  <si>
-    <t>During Outpatient Pharmacy order entry, if a veteran has been identified as having been exposed to ionizing radiation during military service, the pharmacist may be asked to identify whether or not the medication prescribed is being used to treat a condition due to this exposure. This field will store the pharmacist's response to this question. The value in this field will be used to evaluate whether or not a copay should be applied to the prescription. This value will also be used as a default should this question be raised again during the life of the prescription when a prescription fill is being released, or as the default for the question upon renewal of the prescription through CPRS or Outpatient Pharmacy.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @IONIZING RADIATION EXPOSURE 52-119</t>
-  </si>
-  <si>
-    <t>medicationrequest-forSouthwestAsiaConditions</t>
-  </si>
-  <si>
-    <t>SOUTHWEST ASIA CONDITIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forSouthwestAsiaConditions}
-</t>
-  </si>
-  <si>
-    <t>During Outpatient Pharmacy order entry, if a veteran has been identified as having been exposed to Southwest Asia Conditions (formerly referred to as Environmental Contaminants), the pharmacist may be asked to identify whether or not the medication prescribed is being used to treat a condition due to this exposure. This field will store the pharmacist's response to this question. The value in this field will be used to evaluate whether or not a copay should be applied to the prescription. This value will also be used as a default should this question be raised again during the life of the prescription when a prescription fill is being released, or as the default for the question upon renewal of the prescription through CPRS or Outpatient Pharmacy.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @SOUTHWEST ASIA CONDITIONS 52-120</t>
-  </si>
-  <si>
-    <t>medicationrequest-forHeadOrNeckCancer</t>
-  </si>
-  <si>
-    <t>HEAD AND/OR NECK CANCER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forHeadOrNeckCancer}
-</t>
-  </si>
-  <si>
-    <t>During Outpatient Pharmacy order entry, if a veteran has been identified as having been treated for Head and/or Neck Cancer due to nose or throat radium treatments while in the military, the pharmacist may be asked to identify whether or not the medication prescribed is being used to treat this condition. This field will store the pharmacist's response to this question. The value in this field will be used to evaluate whether or not a copay should be applied to the prescription. This value will also be used as a default should this question be raised again during the life of the prescription when a prescription fill is being released, or as the default for the question upon renewal of the prescription through CPRS or Outpatient Pharmacy.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @HEAD AND/OR NECK CANCER 52-121</t>
-  </si>
-  <si>
-    <t>medicationrequest-forCombatService</t>
-  </si>
-  <si>
-    <t>COMBAT VETERAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forCombatService}
-</t>
-  </si>
-  <si>
-    <t>During Outpatient Pharmacy order entry, a pharmacist may be asked if the  medication being prescribed is for a condition related to Combat Services  while in the military. This field will store the pharmacist's response to this question. The value in this field will be used to evaluate whether or not a copay should be applied to the prescription. This value will also be used as a default should this question be raised again during the life of the prescription.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @COMBAT VETERAN 52-122</t>
-  </si>
-  <si>
-    <t>medicationrequest-forShipboardHazard</t>
-  </si>
-  <si>
-    <t>PROJ 112/SHAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-forShipboardHazard}
-</t>
-  </si>
-  <si>
-    <t>During Outpatient Pharmacy order entry, a pharmacist may be asked if the medication being prescribed is for a condition related to PROJ 112/SHAD while in the military. This field will store the pharmacist's response to this question. The value in this field will be used to evaluate whether or not a copay should be applied to the prescription. This value will also be used as a default should this question be raised again during the life of the prescription.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @PROJ 112/SHAD 52-122.01</t>
-  </si>
-  <si>
-    <t>medicationrequest-pharmacyOrderStatus</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-pharmacyOrderStatus}
-</t>
-  </si>
-  <si>
-    <t>This field represents the current status of the prescription.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @STATUS 52-100b</t>
   </si>
   <si>
     <t>MedicationRequest.modifierExtension</t>
@@ -1452,6 +1452,41 @@
     <t>MedicationRequest.dosageInstruction.extension</t>
   </si>
   <si>
+    <t>translation</t>
+  </si>
+  <si>
+    <t>OTHER LANGUAGE DOSAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {translation}
+</t>
+  </si>
+  <si>
+    <t>This is a single dose of medication the patient will receive for this Rx order.  Data should be entered into the field when the patient has another language preference and there is a free-text of a local dosage entered.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @OTHER LANGUAGE DOSAGE 52.0113-9</t>
+  </si>
+  <si>
+    <t>ST.translation</t>
+  </si>
+  <si>
+    <t>pharmacy-sigVerb</t>
+  </si>
+  <si>
+    <t>VERB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/pharmacy-sigVerb}
+</t>
+  </si>
+  <si>
+    <t>This verb will be used to describe how the medication will be taken/used.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @VERB 52.0113-8</t>
+  </si>
+  <si>
     <t>conjunction</t>
   </si>
   <si>
@@ -1468,41 +1503,6 @@
     <t>PRESCRIPTION @CONJUNCTION 52.0113-5</t>
   </si>
   <si>
-    <t>pharmacy-sigVerb</t>
-  </si>
-  <si>
-    <t>VERB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/pharmacy-sigVerb}
-</t>
-  </si>
-  <si>
-    <t>This verb will be used to describe how the medication will be taken/used.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @VERB 52.0113-8</t>
-  </si>
-  <si>
-    <t>translation</t>
-  </si>
-  <si>
-    <t>OTHER LANGUAGE DOSAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {translation}
-</t>
-  </si>
-  <si>
-    <t>This is a single dose of medication the patient will receive for this Rx order.  Data should be entered into the field when the patient has another language preference and there is a free-text of a local dosage entered.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @OTHER LANGUAGE DOSAGE 52.0113-9</t>
-  </si>
-  <si>
-    <t>ST.translation</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstruction.sequence</t>
   </si>
   <si>
@@ -1604,6 +1604,397 @@
     <t>.effectiveTime</t>
   </si>
   <si>
+    <t>MedicationRequest.dosageInstruction.timing.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.event</t>
+  </si>
+  <si>
+    <t>When the event occurs</t>
+  </si>
+  <si>
+    <t>Identifies specific times when the event occurs.</t>
+  </si>
+  <si>
+    <t>In an MAR, for instance, you need to take a general specification, and turn it into a precise specification.</t>
+  </si>
+  <si>
+    <t>Timing.event</t>
+  </si>
+  <si>
+    <t>QLIST&lt;TS&gt;</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element
+</t>
+  </si>
+  <si>
+    <t>When the event is to occur</t>
+  </si>
+  <si>
+    <t>A set of rules that describe when the event is scheduled.</t>
+  </si>
+  <si>
+    <t>Many timing schedules are determined by regular repetitions.</t>
+  </si>
+  <si>
+    <t>Timing.repeat</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+tim-9:If there's an offset, there must be a when (and not C, CM, CD, CV) {offset.empty() or (when.exists() and ((when in ('C' | 'CM' | 'CD' | 'CV')).not()))}tim-5:period SHALL be a non-negative value {period.exists() implies period &gt;= 0}tim-6:If there's a periodMax, there must be a period {periodMax.empty() or period.exists()}tim-7:If there's a durationMax, there must be a duration {durationMax.empty() or duration.exists()}tim-8:If there's a countMax, there must be a count {countMax.empty() or count.exists()}tim-1:if there's a duration, there needs to be duration units {duration.empty() or durationUnit.exists()}tim-10:If there's a timeOfDay, there cannot be be a when, or vice versa {timeOfDay.empty() or when.empty()}tim-2:if there's a period, there needs to be period units {period.empty() or periodUnit.exists()}tim-4:duration SHALL be a non-negative value {duration.exists() implies duration &gt;= 0}</t>
+  </si>
+  <si>
+    <t>Implies PIVL or EIVL</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.bounds[x]</t>
+  </si>
+  <si>
+    <t>Duration
+RangePeriod</t>
+  </si>
+  <si>
+    <t>Length/Range of lengths, or (Start and/or end) limits</t>
+  </si>
+  <si>
+    <t>Either a duration for the length of the timing schedule, a range of possible length, or outer bounds for start and/or end limits of the timing schedule.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.bounds[x]</t>
+  </si>
+  <si>
+    <t>IVL(TS) used in a QSI</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.count</t>
+  </si>
+  <si>
+    <t>Number of times to repeat</t>
+  </si>
+  <si>
+    <t>A total count of the desired number of repetitions.</t>
+  </si>
+  <si>
+    <t>If you have both bounds and count, then this should be understood as within the bounds period, until count times happens.</t>
+  </si>
+  <si>
+    <t>Repetitions may be limited by end time or total occurrences.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.count</t>
+  </si>
+  <si>
+    <t>PIVL.count</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.countMax</t>
+  </si>
+  <si>
+    <t>Maximum number of times to repeat</t>
+  </si>
+  <si>
+    <t>A maximum value for the count of the desired repetitions (e.g. do something 6-8 times).</t>
+  </si>
+  <si>
+    <t>Timing.repeat.countMax</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.duration</t>
+  </si>
+  <si>
+    <t>DURATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>This is the length of time that a medication order should be given. If you enter a numeric value, Days will be assumed. You may also enter a numeric value followed by a letter. The letters can be entered as 'M' for Minutes, 'H' for Hours, 'D' for Days, 'W' for Weeks, 'L' for Months.   THIS IS NOT DAYS SUPPLY!</t>
+  </si>
+  <si>
+    <t>For some events the duration is part of the definition of the event (e.g. IV infusions, where the duration is implicit in the specified quantity and rate). For others, it's part of the timing specification (e.g. exercise).</t>
+  </si>
+  <si>
+    <t>Some activities are not instantaneous and need to be maintained for a period of time.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.duration</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @DURATION 52.0113-4</t>
+  </si>
+  <si>
+    <t>PIVL.phase</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.durationMax</t>
+  </si>
+  <si>
+    <t>How long when it happens (Max)</t>
+  </si>
+  <si>
+    <t>The upper limit of how long this thing happens for when it happens.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.durationMax</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.durationUnit</t>
+  </si>
+  <si>
+    <t>s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
+  </si>
+  <si>
+    <t>The units of time for the duration, in UCUM units.</t>
+  </si>
+  <si>
+    <t>A unit of time (units from UCUM).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/units-of-time</t>
+  </si>
+  <si>
+    <t>Timing.repeat.durationUnit</t>
+  </si>
+  <si>
+    <t>PIVL.phase.unit</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.frequency</t>
+  </si>
+  <si>
+    <t>Event occurs frequency times per period</t>
+  </si>
+  <si>
+    <t>The number of times to repeat the action within the specified period / period range (i.e. both period and periodMax provided).</t>
+  </si>
+  <si>
+    <t>Timing.repeat.frequency</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.frequencyMax</t>
+  </si>
+  <si>
+    <t>Event occurs up to frequencyMax times per period</t>
+  </si>
+  <si>
+    <t>If present, indicates that the frequency is a range - so to repeat between [frequency] and [frequencyMax] times within the period or period range.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.frequencyMax</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.period</t>
+  </si>
+  <si>
+    <t>Indicates the duration of time over which repetitions are to occur; e.g. to express "3 times per day", 3 would be the frequency and "1 day" would be the period.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.period</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.periodMax</t>
+  </si>
+  <si>
+    <t>Upper limit of period (3-4 hours)</t>
+  </si>
+  <si>
+    <t>If present, indicates that the period is a range from [period] to [periodMax], allowing expressing concepts such as "do this once every 3-5 days.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.periodMax</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.periodUnit</t>
+  </si>
+  <si>
+    <t>The units of time for the period in UCUM units.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.periodUnit</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.dayOfWeek</t>
+  </si>
+  <si>
+    <t>mon | tue | wed | thu | fri | sat | sun</t>
+  </si>
+  <si>
+    <t>If one or more days of week is provided, then the action happens only on the specified day(s).</t>
+  </si>
+  <si>
+    <t>If no days are specified, the action is assumed to happen every day as otherwise specified. The elements frequency and period cannot be used as well as dayOfWeek.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/days-of-week</t>
+  </si>
+  <si>
+    <t>Timing.repeat.dayOfWeek</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.timeOfDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time
+</t>
+  </si>
+  <si>
+    <t>Time of day for action</t>
+  </si>
+  <si>
+    <t>Specified time of day for action to take place.</t>
+  </si>
+  <si>
+    <t>When time of day is specified, it is inferred that the action happens every day (as filtered by dayofWeek) on the specified times. The elements when, frequency and period cannot be used as well as timeOfDay.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.timeOfDay</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.when</t>
+  </si>
+  <si>
+    <t>Regular life events the event is tied to</t>
+  </si>
+  <si>
+    <t>Real world events that the occurrence of the event should be tied to.</t>
+  </si>
+  <si>
+    <t>When more than one event is listed, the event is tied to the union of the specified events.</t>
+  </si>
+  <si>
+    <t>Timings are frequently determined by occurrences such as waking, eating and sleep.</t>
+  </si>
+  <si>
+    <t>Real world event relating to the schedule.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/event-timing</t>
+  </si>
+  <si>
+    <t>Timing.repeat.when</t>
+  </si>
+  <si>
+    <t>EIVL.event</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsignedInt
+</t>
+  </si>
+  <si>
+    <t>Minutes from event (before or after)</t>
+  </si>
+  <si>
+    <t>The number of minutes from the event. If the event code does not indicate whether the minutes is before or after the event, then the offset is assumed to be after the event.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.offset</t>
+  </si>
+  <si>
+    <t>EIVL.offset</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.code</t>
+  </si>
+  <si>
+    <t>BID | TID | QID | AM | PM | QD | QOD | Q4H | Q6H +</t>
+  </si>
+  <si>
+    <t>A code for the timing schedule. Some codes such as BID are ubiquitous, but many institutions define their own additional codes. If a code is provided, the code is understood to be a complete statement of whatever is specified in the structured timing data, and either the code or the data may be used to interpret the Timing, with the exception that .repeat.bounds still applies over the code (and is not contained in the code).</t>
+  </si>
+  <si>
+    <t>BID etc are defined as 'at institutionally specified times'. For example, an institution may choose that BID is "always at 7am and 6pm".  If it is inappropriate for this choice to be made, the code BID should not be used. Instead, a distinct organization-specific code should be used in place of the HL7-defined BID code and/or the a structured representation should be used (in this case, specifying the two event times).</t>
+  </si>
+  <si>
+    <t>Code for a known / defined timing pattern.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/timing-abbreviation</t>
+  </si>
+  <si>
+    <t>Timing.code</t>
+  </si>
+  <si>
+    <t>QSC.code</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.code.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.code.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.code.text</t>
+  </si>
+  <si>
+    <t>SCHEDULE</t>
+  </si>
+  <si>
+    <t>This field is used to tell the patient how often the medication is to be used.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @SCHEDULE 52.0113-7</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
     <t>MedicationRequest.dosageInstruction.asNeeded[x]</t>
   </si>
   <si>
@@ -1683,6 +2074,151 @@
     <t>.routeCode</t>
   </si>
   <si>
+    <t>MedicationRequest.dosageInstruction.route.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://va.gov/terminology/vistaDefinedTerms/53.1-3</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.code</t>
+  </si>
+  <si>
+    <t>ROUTE</t>
+  </si>
+  <si>
+    <t>This is how the medication is taken, applied, or used.</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @ROUTE 52.0113-6</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
     <t>MedicationRequest.dosageInstruction.method</t>
   </si>
   <si>
@@ -1732,6 +2268,12 @@
     <t>Dosage.dose[x]</t>
   </si>
   <si>
+    <t>MedicationRequest.dosageInstruction.dose[x].id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.dose[x].extension</t>
+  </si>
+  <si>
     <t>MedicationRequest.dosageInstruction.maxDosePerPeriod</t>
   </si>
   <si>
@@ -1960,10 +2502,6 @@
     <t>DAYS SUPPLY</t>
   </si>
   <si>
-    <t xml:space="preserve">decimal
-</t>
-  </si>
-  <si>
     <t>Days Supply</t>
   </si>
   <si>
@@ -2125,10 +2663,6 @@
   </si>
   <si>
     <t>MedicationRequest.substitution.allowed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
   </si>
   <si>
     <t>Whether substitution is allowed or not</t>
@@ -2383,7 +2917,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO105"/>
+  <dimension ref="A1:AO144"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3520,7 +4054,7 @@
         <v>107</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>108</v>
@@ -3758,10 +4292,10 @@
         <v>120</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3827,7 +4361,7 @@
         <v>110</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>45</v>
@@ -3850,13 +4384,13 @@
         <v>98</v>
       </c>
       <c r="B13" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="E13" t="s" s="2">
         <v>43</v>
@@ -3874,13 +4408,13 @@
         <v>45</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3946,7 +4480,7 @@
         <v>110</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>45</v>
@@ -3969,13 +4503,13 @@
         <v>98</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s" s="2">
         <v>43</v>
@@ -3993,13 +4527,13 @@
         <v>45</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -4065,7 +4599,7 @@
         <v>110</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>45</v>
@@ -4088,13 +4622,13 @@
         <v>98</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E15" t="s" s="2">
         <v>43</v>
@@ -4112,13 +4646,13 @@
         <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4184,7 +4718,7 @@
         <v>110</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>45</v>
@@ -4193,7 +4727,7 @@
         <v>45</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>45</v>
@@ -4207,13 +4741,13 @@
         <v>98</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E16" t="s" s="2">
         <v>43</v>
@@ -4231,13 +4765,13 @@
         <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4303,7 +4837,7 @@
         <v>110</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>45</v>
@@ -4312,7 +4846,7 @@
         <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>45</v>
@@ -4326,13 +4860,13 @@
         <v>98</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E17" t="s" s="2">
         <v>43</v>
@@ -4350,13 +4884,13 @@
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4422,7 +4956,7 @@
         <v>110</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>45</v>
@@ -4445,13 +4979,13 @@
         <v>98</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E18" t="s" s="2">
         <v>43</v>
@@ -4469,13 +5003,13 @@
         <v>45</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4541,7 +5075,7 @@
         <v>110</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>45</v>
@@ -4564,13 +5098,13 @@
         <v>98</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E19" t="s" s="2">
         <v>43</v>
@@ -4588,13 +5122,13 @@
         <v>45</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4660,7 +5194,7 @@
         <v>110</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
@@ -4683,13 +5217,13 @@
         <v>98</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E20" t="s" s="2">
         <v>43</v>
@@ -4707,13 +5241,13 @@
         <v>45</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4779,7 +5313,7 @@
         <v>110</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>45</v>
@@ -4788,7 +5322,7 @@
         <v>45</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>45</v>
@@ -4802,13 +5336,13 @@
         <v>98</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E21" t="s" s="2">
         <v>43</v>
@@ -4826,13 +5360,13 @@
         <v>45</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4898,7 +5432,7 @@
         <v>110</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
@@ -4907,7 +5441,7 @@
         <v>45</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>45</v>
@@ -4921,13 +5455,13 @@
         <v>98</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E22" t="s" s="2">
         <v>43</v>
@@ -4945,13 +5479,13 @@
         <v>45</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -5017,7 +5551,7 @@
         <v>110</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
@@ -5040,13 +5574,13 @@
         <v>98</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E23" t="s" s="2">
         <v>43</v>
@@ -5064,13 +5598,13 @@
         <v>45</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -5136,7 +5670,7 @@
         <v>110</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>45</v>
@@ -5159,13 +5693,13 @@
         <v>98</v>
       </c>
       <c r="B24" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D24" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="E24" t="s" s="2">
         <v>43</v>
@@ -5183,13 +5717,13 @@
         <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5255,7 +5789,7 @@
         <v>110</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
@@ -5278,13 +5812,13 @@
         <v>98</v>
       </c>
       <c r="B25" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="E25" t="s" s="2">
         <v>43</v>
@@ -5302,10 +5836,10 @@
         <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>190</v>
@@ -5424,7 +5958,7 @@
         <v>194</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>195</v>
@@ -7037,7 +7571,7 @@
         <v>45</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="E40" t="s" s="2">
         <v>43</v>
@@ -7058,10 +7592,10 @@
         <v>73</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>195</v>
+        <v>108</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>296</v>
@@ -9854,7 +10388,7 @@
         <v>456</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>457</v>
@@ -9932,7 +10466,7 @@
         <v>45</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>97</v>
+        <v>459</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9946,13 +10480,13 @@
         <v>453</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D65" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E65" t="s" s="2">
         <v>43</v>
@@ -9970,13 +10504,13 @@
         <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -10042,7 +10576,7 @@
         <v>45</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>45</v>
@@ -10065,13 +10599,13 @@
         <v>453</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E66" t="s" s="2">
         <v>43</v>
@@ -10089,13 +10623,13 @@
         <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -10161,7 +10695,7 @@
         <v>45</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>45</v>
@@ -10170,7 +10704,7 @@
         <v>45</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>469</v>
+        <v>97</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -10788,20 +11322,18 @@
         <v>45</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>504</v>
+        <v>213</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>505</v>
+        <v>214</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>45</v>
@@ -10826,13 +11358,13 @@
         <v>45</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>334</v>
+        <v>45</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>508</v>
+        <v>45</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>509</v>
+        <v>45</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>45</v>
@@ -10850,7 +11382,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>510</v>
+        <v>216</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -10874,7 +11406,7 @@
         <v>45</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>511</v>
+        <v>217</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -10885,18 +11417,18 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>45</v>
@@ -10905,23 +11437,21 @@
         <v>45</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>234</v>
+        <v>99</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>513</v>
+        <v>219</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>514</v>
+        <v>220</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>45</v>
       </c>
@@ -10945,37 +11475,37 @@
         <v>45</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>334</v>
+        <v>45</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>517</v>
+        <v>45</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>518</v>
+        <v>45</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>519</v>
+        <v>222</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>45</v>
@@ -10993,7 +11523,7 @@
         <v>45</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>520</v>
+        <v>217</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
@@ -11004,7 +11534,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11015,7 +11545,7 @@
         <v>43</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>45</v>
@@ -11027,17 +11557,17 @@
         <v>55</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>45</v>
@@ -11062,13 +11592,13 @@
         <v>45</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>334</v>
+        <v>45</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>525</v>
+        <v>45</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>526</v>
+        <v>45</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>45</v>
@@ -11086,13 +11616,13 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>45</v>
@@ -11110,7 +11640,7 @@
         <v>45</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
@@ -11121,7 +11651,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11144,19 +11674,17 @@
         <v>55</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>234</v>
+        <v>512</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>532</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>45</v>
@@ -11181,13 +11709,13 @@
         <v>45</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>334</v>
+        <v>45</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>534</v>
+        <v>45</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>535</v>
+        <v>45</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>45</v>
@@ -11205,7 +11733,7 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
@@ -11217,7 +11745,7 @@
         <v>45</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>45</v>
+        <v>517</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>45</v>
@@ -11229,7 +11757,7 @@
         <v>45</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>45</v>
@@ -11240,7 +11768,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11260,23 +11788,19 @@
         <v>45</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>539</v>
+        <v>213</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>540</v>
+        <v>214</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>543</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>45</v>
       </c>
@@ -11324,7 +11848,7 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>544</v>
+        <v>216</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -11348,7 +11872,7 @@
         <v>45</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>537</v>
+        <v>217</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
@@ -11359,18 +11883,18 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>45</v>
@@ -11379,23 +11903,21 @@
         <v>45</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>546</v>
+        <v>99</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>547</v>
+        <v>219</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>548</v>
+        <v>220</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>550</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>45</v>
       </c>
@@ -11431,25 +11953,25 @@
         <v>45</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>551</v>
+        <v>222</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>45</v>
@@ -11467,7 +11989,7 @@
         <v>45</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>552</v>
+        <v>217</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>45</v>
@@ -11478,7 +12000,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>553</v>
+        <v>521</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11501,20 +12023,16 @@
         <v>55</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>554</v>
+        <v>522</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>555</v>
+        <v>523</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>558</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>45</v>
       </c>
@@ -11562,7 +12080,7 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>559</v>
+        <v>525</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
@@ -11586,7 +12104,7 @@
         <v>45</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>560</v>
+        <v>526</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
@@ -11597,7 +12115,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>561</v>
+        <v>527</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11620,17 +12138,19 @@
         <v>55</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>554</v>
+        <v>471</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>562</v>
+        <v>528</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>529</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="N79" t="s" s="2">
-        <v>564</v>
+        <v>531</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>45</v>
@@ -11679,7 +12199,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>565</v>
+        <v>532</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -11703,7 +12223,7 @@
         <v>45</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>560</v>
+        <v>533</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>
@@ -11714,7 +12234,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>566</v>
+        <v>534</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11737,20 +12257,16 @@
         <v>55</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>567</v>
+        <v>471</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>568</v>
+        <v>535</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>571</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>45</v>
       </c>
@@ -11798,7 +12314,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>572</v>
+        <v>537</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -11822,7 +12338,7 @@
         <v>45</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>573</v>
+        <v>533</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>45</v>
@@ -11831,15 +12347,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>574</v>
+        <v>538</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>539</v>
+      </c>
       <c r="E81" t="s" s="2">
         <v>43</v>
       </c>
@@ -11847,25 +12365,29 @@
         <v>54</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>382</v>
+        <v>540</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>575</v>
+        <v>167</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>45</v>
       </c>
@@ -11913,7 +12435,7 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>574</v>
+        <v>544</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
@@ -11925,19 +12447,19 @@
         <v>45</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>577</v>
+        <v>45</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>45</v>
+        <v>545</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>578</v>
+        <v>45</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>579</v>
+        <v>546</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>45</v>
@@ -11948,7 +12470,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>580</v>
+        <v>547</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11968,19 +12490,23 @@
         <v>45</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>213</v>
+        <v>540</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>214</v>
+        <v>548</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
       </c>
@@ -12028,7 +12554,7 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>216</v>
+        <v>550</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
@@ -12052,7 +12578,7 @@
         <v>45</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>217</v>
+        <v>546</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
@@ -12063,18 +12589,18 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>45</v>
@@ -12083,20 +12609,18 @@
         <v>45</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>219</v>
+        <v>552</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>45</v>
@@ -12121,13 +12645,13 @@
         <v>45</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>45</v>
+        <v>554</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>45</v>
+        <v>555</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>45</v>
@@ -12145,13 +12669,13 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>222</v>
+        <v>556</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>45</v>
@@ -12169,7 +12693,7 @@
         <v>45</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>217</v>
+        <v>557</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
@@ -12180,43 +12704,41 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>391</v>
+        <v>45</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>55</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>99</v>
+        <v>471</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>199</v>
+        <v>559</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
@@ -12262,13 +12784,13 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>393</v>
+        <v>561</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>45</v>
@@ -12286,7 +12808,7 @@
         <v>45</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>97</v>
+        <v>546</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>
@@ -12297,7 +12819,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12317,23 +12839,19 @@
         <v>45</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>263</v>
+        <v>471</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>587</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>45</v>
       </c>
@@ -12381,7 +12899,7 @@
         <v>45</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>43</v>
@@ -12402,10 +12920,10 @@
         <v>45</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>588</v>
+        <v>45</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>589</v>
+        <v>546</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>45</v>
@@ -12414,17 +12932,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D86" t="s" s="2">
-        <v>591</v>
-      </c>
+      <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>43</v>
       </c>
@@ -12432,26 +12948,24 @@
         <v>54</v>
       </c>
       <c r="G86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I86" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="H86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J86" t="s" s="2">
-        <v>592</v>
+        <v>540</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>593</v>
+        <v>559</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>595</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>45</v>
@@ -12500,7 +13014,7 @@
         <v>45</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
@@ -12515,35 +13029,33 @@
         <v>45</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>596</v>
+        <v>45</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>597</v>
+        <v>45</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>598</v>
+        <v>546</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>599</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>600</v>
+        <v>569</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D87" t="s" s="2">
-        <v>601</v>
-      </c>
+      <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>43</v>
       </c>
@@ -12551,22 +13063,22 @@
         <v>54</v>
       </c>
       <c r="G87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I87" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="H87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J87" t="s" s="2">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>602</v>
+        <v>570</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>603</v>
+        <v>571</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12617,7 +13129,7 @@
         <v>45</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>600</v>
+        <v>572</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
@@ -12632,27 +13144,27 @@
         <v>45</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>604</v>
+        <v>45</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>605</v>
+        <v>45</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>606</v>
+        <v>546</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>607</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>608</v>
+        <v>573</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12672,20 +13184,18 @@
         <v>45</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>609</v>
+        <v>73</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>610</v>
+        <v>552</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>612</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>45</v>
@@ -12710,13 +13220,13 @@
         <v>45</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>45</v>
+        <v>554</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>45</v>
+        <v>555</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>45</v>
@@ -12734,7 +13244,7 @@
         <v>45</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>608</v>
+        <v>575</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>43</v>
@@ -12755,10 +13265,10 @@
         <v>45</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>613</v>
+        <v>45</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>614</v>
+        <v>557</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>45</v>
@@ -12769,7 +13279,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>615</v>
+        <v>576</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12780,7 +13290,7 @@
         <v>43</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>45</v>
@@ -12789,18 +13299,20 @@
         <v>45</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>214</v>
+        <v>577</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M89" s="2"/>
+        <v>578</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>579</v>
+      </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>45</v>
@@ -12825,13 +13337,11 @@
         <v>45</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="X89" s="2"/>
       <c r="Y89" t="s" s="2">
-        <v>45</v>
+        <v>580</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>45</v>
@@ -12849,13 +13359,13 @@
         <v>45</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>216</v>
+        <v>581</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>45</v>
@@ -12884,11 +13394,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>616</v>
+        <v>582</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12904,19 +13414,19 @@
         <v>45</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>99</v>
+        <v>583</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>219</v>
+        <v>584</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>220</v>
+        <v>585</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>201</v>
+        <v>586</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12954,19 +13464,19 @@
         <v>45</v>
       </c>
       <c r="AA90" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="AC90" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD90" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>222</v>
+        <v>587</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>43</v>
@@ -12999,25 +13509,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>617</v>
+        <v>588</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D91" t="s" s="2">
-        <v>618</v>
-      </c>
+      <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>45</v>
@@ -13026,19 +13534,19 @@
         <v>55</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>619</v>
+        <v>73</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>620</v>
+        <v>589</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>621</v>
+        <v>590</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>622</v>
+        <v>591</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>623</v>
+        <v>592</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>45</v>
@@ -13063,13 +13571,13 @@
         <v>45</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>45</v>
+        <v>593</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>45</v>
+        <v>594</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>45</v>
@@ -13087,13 +13595,13 @@
         <v>45</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>624</v>
+        <v>595</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>45</v>
@@ -13102,7 +13610,7 @@
         <v>45</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>625</v>
+        <v>45</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>45</v>
@@ -13111,18 +13619,18 @@
         <v>45</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>626</v>
+        <v>596</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>627</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>628</v>
+        <v>597</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13139,32 +13647,26 @@
         <v>45</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>55</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>73</v>
+        <v>598</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>629</v>
+        <v>599</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>632</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P92" t="s" s="2">
-        <v>633</v>
-      </c>
+      <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
         <v>45</v>
       </c>
@@ -13184,13 +13686,13 @@
         <v>45</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>634</v>
+        <v>45</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>635</v>
+        <v>45</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>45</v>
@@ -13208,7 +13710,7 @@
         <v>45</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>636</v>
+        <v>601</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>43</v>
@@ -13232,18 +13734,18 @@
         <v>45</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>637</v>
+        <v>602</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>638</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>639</v>
+        <v>603</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13257,7 +13759,7 @@
         <v>54</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>45</v>
@@ -13266,24 +13768,24 @@
         <v>55</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>640</v>
+        <v>604</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" t="s" s="2">
-        <v>642</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
-        <v>643</v>
+        <v>45</v>
       </c>
       <c r="R93" t="s" s="2">
         <v>45</v>
@@ -13301,13 +13803,13 @@
         <v>45</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>45</v>
+        <v>607</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>45</v>
+        <v>608</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>45</v>
@@ -13325,7 +13827,7 @@
         <v>45</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>644</v>
+        <v>609</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>43</v>
@@ -13349,18 +13851,18 @@
         <v>45</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>645</v>
+        <v>610</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>646</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>647</v>
+        <v>611</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13380,21 +13882,19 @@
         <v>45</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>67</v>
+        <v>213</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>648</v>
+        <v>214</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>649</v>
+        <v>215</v>
       </c>
       <c r="M94" s="2"/>
-      <c r="N94" t="s" s="2">
-        <v>650</v>
-      </c>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>45</v>
       </c>
@@ -13442,7 +13942,7 @@
         <v>45</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>651</v>
+        <v>216</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>43</v>
@@ -13451,7 +13951,7 @@
         <v>54</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>652</v>
+        <v>45</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>45</v>
@@ -13466,29 +13966,29 @@
         <v>45</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>653</v>
+        <v>217</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>646</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>654</v>
+        <v>612</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>45</v>
@@ -13497,23 +13997,21 @@
         <v>45</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>655</v>
+        <v>219</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>656</v>
+        <v>220</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>658</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>45</v>
       </c>
@@ -13549,25 +14047,25 @@
         <v>45</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="AC95" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD95" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>659</v>
+        <v>222</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>45</v>
@@ -13585,18 +14083,18 @@
         <v>45</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>660</v>
+        <v>217</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>646</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>661</v>
+        <v>613</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13607,7 +14105,7 @@
         <v>43</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>45</v>
@@ -13616,19 +14114,23 @@
         <v>45</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>270</v>
+        <v>614</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>662</v>
+        <v>615</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
+        <v>616</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>618</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>45</v>
       </c>
@@ -13676,13 +14178,13 @@
         <v>45</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>661</v>
+        <v>619</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>45</v>
@@ -13700,24 +14202,26 @@
         <v>45</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>664</v>
+        <v>620</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>419</v>
+        <v>45</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>45</v>
+        <v>621</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
-        <v>665</v>
+        <v>622</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>623</v>
+      </c>
       <c r="E97" t="s" s="2">
         <v>43</v>
       </c>
@@ -13725,25 +14229,29 @@
         <v>54</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>382</v>
+        <v>213</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>666</v>
+        <v>167</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
+        <v>624</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>626</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>45</v>
       </c>
@@ -13791,7 +14299,7 @@
         <v>45</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>665</v>
+        <v>627</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>43</v>
@@ -13803,30 +14311,30 @@
         <v>45</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>577</v>
+        <v>45</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>45</v>
+        <v>628</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>668</v>
+        <v>45</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>669</v>
+        <v>629</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>45</v>
+        <v>630</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>670</v>
+        <v>631</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13846,18 +14354,20 @@
         <v>45</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>213</v>
+        <v>632</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>214</v>
+        <v>633</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M98" s="2"/>
+        <v>634</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>635</v>
+      </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>45</v>
@@ -13882,13 +14392,13 @@
         <v>45</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>45</v>
+        <v>636</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>45</v>
+        <v>637</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>45</v>
@@ -13906,7 +14416,7 @@
         <v>45</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>216</v>
+        <v>638</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>43</v>
@@ -13930,7 +14440,7 @@
         <v>45</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>217</v>
+        <v>639</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>45</v>
@@ -13941,18 +14451,18 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>671</v>
+        <v>640</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>45</v>
@@ -13961,21 +14471,23 @@
         <v>45</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>219</v>
+        <v>641</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>220</v>
+        <v>642</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N99" s="2"/>
+        <v>643</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>644</v>
+      </c>
       <c r="O99" t="s" s="2">
         <v>45</v>
       </c>
@@ -13999,13 +14511,13 @@
         <v>45</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>45</v>
+        <v>645</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>45</v>
+        <v>646</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>45</v>
@@ -14023,13 +14535,13 @@
         <v>45</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>222</v>
+        <v>647</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>45</v>
@@ -14047,7 +14559,7 @@
         <v>45</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>217</v>
+        <v>648</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>45</v>
@@ -14058,41 +14570,41 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>672</v>
+        <v>649</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>391</v>
+        <v>45</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>55</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>199</v>
+        <v>650</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>651</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" t="s" s="2">
+        <v>652</v>
+      </c>
       <c r="O100" t="s" s="2">
         <v>45</v>
       </c>
@@ -14116,13 +14628,13 @@
         <v>45</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>45</v>
+        <v>653</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>45</v>
+        <v>654</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>45</v>
@@ -14140,13 +14652,13 @@
         <v>45</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>393</v>
+        <v>655</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>45</v>
@@ -14164,7 +14676,7 @@
         <v>45</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>97</v>
+        <v>656</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>45</v>
@@ -14175,7 +14687,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14183,7 +14695,7 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>54</v>
@@ -14192,23 +14704,21 @@
         <v>45</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>674</v>
+        <v>213</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>675</v>
+        <v>214</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>677</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="M101" s="2"/>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>45</v>
@@ -14257,10 +14767,10 @@
         <v>45</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>673</v>
+        <v>216</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>54</v>
@@ -14278,32 +14788,32 @@
         <v>45</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>668</v>
+        <v>45</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>678</v>
+        <v>217</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>679</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>45</v>
@@ -14315,15 +14825,17 @@
         <v>45</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>234</v>
+        <v>99</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>681</v>
+        <v>219</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="M102" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>45</v>
@@ -14348,37 +14860,37 @@
         <v>45</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>334</v>
+        <v>45</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>683</v>
+        <v>45</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>684</v>
+        <v>45</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA102" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="AC102" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD102" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>680</v>
+        <v>222</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>45</v>
@@ -14393,55 +14905,57 @@
         <v>45</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>685</v>
+        <v>45</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>686</v>
+        <v>217</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>687</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D103" t="s" s="2">
-        <v>689</v>
-      </c>
+      <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I103" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="H103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J103" t="s" s="2">
-        <v>690</v>
+        <v>614</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>691</v>
+        <v>615</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
+        <v>616</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>618</v>
+      </c>
       <c r="O103" t="s" s="2">
         <v>45</v>
       </c>
@@ -14489,13 +15003,13 @@
         <v>45</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>688</v>
+        <v>619</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>45</v>
@@ -14504,38 +15018,38 @@
         <v>45</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>693</v>
+        <v>45</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>694</v>
+        <v>45</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>685</v>
+        <v>45</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>695</v>
+        <v>620</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>45</v>
+        <v>621</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>696</v>
+        <v>660</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>697</v>
+        <v>45</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>45</v>
@@ -14547,13 +15061,13 @@
         <v>45</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>698</v>
+        <v>213</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>699</v>
+        <v>214</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>700</v>
+        <v>215</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -14604,13 +15118,13 @@
         <v>45</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>696</v>
+        <v>216</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>45</v>
@@ -14628,7 +15142,7 @@
         <v>45</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>701</v>
+        <v>217</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>45</v>
@@ -14639,11 +15153,11 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>702</v>
+        <v>661</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -14662,16 +15176,16 @@
         <v>45</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>703</v>
+        <v>99</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>704</v>
+        <v>219</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>705</v>
+        <v>220</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>706</v>
+        <v>201</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -14709,19 +15223,19 @@
         <v>45</v>
       </c>
       <c r="AA105" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="AC105" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD105" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>702</v>
+        <v>222</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>43</v>
@@ -14739,23 +15253,4596 @@
         <v>45</v>
       </c>
       <c r="AK105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D108" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="E108" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="M108" s="2"/>
+      <c r="N108" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="M109" s="2"/>
+      <c r="N109" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO111" t="s" s="2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="L112" t="s" s="2">
         <v>707</v>
       </c>
-      <c r="AL105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM105" t="s" s="2">
+      <c r="M112" t="s" s="2">
         <v>708</v>
       </c>
-      <c r="AN105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO105" t="s" s="2">
+      <c r="N112" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO112" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO113" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO114" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" hidden="true">
+      <c r="A115" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AE115" s="2"/>
+      <c r="AF115" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG115" s="2"/>
+      <c r="AH115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO115" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="116" hidden="true">
+      <c r="A116" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F116" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P116" s="2"/>
+      <c r="Q116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO116" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="117" hidden="true">
+      <c r="A117" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F117" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P117" s="2"/>
+      <c r="Q117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO117" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="118" hidden="true">
+      <c r="A118" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F118" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="M118" s="2"/>
+      <c r="N118" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P118" s="2"/>
+      <c r="Q118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO118" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119" hidden="true">
+      <c r="A119" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F119" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P119" s="2"/>
+      <c r="Q119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO119" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120" hidden="true">
+      <c r="A120" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F120" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P120" s="2"/>
+      <c r="Q120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO120" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" hidden="true">
+      <c r="A121" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F121" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
+      <c r="O121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P121" s="2"/>
+      <c r="Q121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO121" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="122" hidden="true">
+      <c r="A122" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N122" s="2"/>
+      <c r="O122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P122" s="2"/>
+      <c r="Q122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO122" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="123" hidden="true">
+      <c r="A123" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N123" s="2"/>
+      <c r="O123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P123" s="2"/>
+      <c r="Q123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM123" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AN123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO123" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" hidden="true">
+      <c r="A124" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F124" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="O124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P124" s="2"/>
+      <c r="Q124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO124" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D125" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="E125" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F125" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="N125" s="2"/>
+      <c r="O125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P125" s="2"/>
+      <c r="Q125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO125" t="s" s="2">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D126" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="E126" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F126" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P126" s="2"/>
+      <c r="Q126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO126" t="s" s="2">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="127" hidden="true">
+      <c r="A127" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F127" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="N127" s="2"/>
+      <c r="O127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P127" s="2"/>
+      <c r="Q127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO127" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="128" hidden="true">
+      <c r="A128" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F128" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P128" s="2"/>
+      <c r="Q128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AN128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO128" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="129" hidden="true">
+      <c r="A129" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N129" s="2"/>
+      <c r="O129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P129" s="2"/>
+      <c r="Q129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AN129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO129" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D130" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="E130" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F130" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="O130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P130" s="2"/>
+      <c r="Q130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM130" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="AN130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO130" t="s" s="2">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="131" hidden="true">
+      <c r="A131" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F131" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>806</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="O131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P131" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="Q131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM131" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="AN131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO131" t="s" s="2">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F132" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="M132" s="2"/>
+      <c r="N132" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="O132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P132" s="2"/>
+      <c r="Q132" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="R132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="AF132" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG132" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM132" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="AN132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO132" t="s" s="2">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="133" hidden="true">
+      <c r="A133" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F133" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I133" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="M133" s="2"/>
+      <c r="N133" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="O133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P133" s="2"/>
+      <c r="Q133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="AI133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM133" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="AN133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO133" t="s" s="2">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="134" hidden="true">
+      <c r="A134" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F134" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="O134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P134" s="2"/>
+      <c r="Q134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM134" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="AN134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO134" t="s" s="2">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="135" hidden="true">
+      <c r="A135" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F135" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J135" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
+      <c r="O135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P135" s="2"/>
+      <c r="Q135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE135" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="AF135" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG135" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM135" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="AN135" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AO135" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="136" hidden="true">
+      <c r="A136" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F136" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K136" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
+      <c r="O136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P136" s="2"/>
+      <c r="Q136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="AF136" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG136" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI136" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="AJ136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL136" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="AM136" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="AN136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO136" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="137" hidden="true">
+      <c r="A137" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F137" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J137" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K137" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L137" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
+      <c r="O137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P137" s="2"/>
+      <c r="Q137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE137" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF137" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG137" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM137" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AN137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO137" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="138" hidden="true">
+      <c r="A138" t="s" s="2">
+        <v>848</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F138" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J138" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K138" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N138" s="2"/>
+      <c r="O138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P138" s="2"/>
+      <c r="Q138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AF138" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG138" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM138" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AN138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO138" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139" hidden="true">
+      <c r="A139" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F139" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I139" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N139" s="2"/>
+      <c r="O139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P139" s="2"/>
+      <c r="Q139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF139" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM139" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AN139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO139" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="140" hidden="true">
+      <c r="A140" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="F140" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="N140" s="2"/>
+      <c r="O140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P140" s="2"/>
+      <c r="Q140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="AM140" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="AN140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO140" t="s" s="2">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="141" hidden="true">
+      <c r="A141" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
+      <c r="O141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P141" s="2"/>
+      <c r="Q141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="AM141" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="AN141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO141" t="s" s="2">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="2">
+        <v>864</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D142" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="E142" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F142" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="K142" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>868</v>
+      </c>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
+      <c r="O142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P142" s="2"/>
+      <c r="Q142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>864</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="AM142" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="AN142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO142" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="143" hidden="true">
+      <c r="A143" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F143" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J143" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>875</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
+      <c r="O143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P143" s="2"/>
+      <c r="Q143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE143" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="AF143" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG143" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM143" t="s" s="2">
+        <v>877</v>
+      </c>
+      <c r="AN143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO143" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="144" hidden="true">
+      <c r="A144" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F144" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="K144" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="N144" s="2"/>
+      <c r="O144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P144" s="2"/>
+      <c r="Q144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK144" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="AL144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM144" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="AN144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO144" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO105">
+  <autoFilter ref="A1:AO144">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14765,7 +19852,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI104">
+  <conditionalFormatting sqref="A2:AI143">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
